--- a/Stock-Analysis/TEMP.xlsx
+++ b/Stock-Analysis/TEMP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Stock-Analysis/Stock Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF6FA561-EC26-467C-8F85-3928E6C471CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{BF6FA561-EC26-467C-8F85-3928E6C471CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B69AEE54-246D-4717-B4E7-36069285BEBD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="4" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="4" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
   <sheets>
     <sheet name="IOV" sheetId="4" r:id="rId1"/>
@@ -249,13 +249,13 @@
     <t>Growth</t>
   </si>
   <si>
-    <t>Pivot</t>
-  </si>
-  <si>
     <t>YOC</t>
   </si>
   <si>
     <t>[Analysis -2022] [Div = ][Price Pivot ][Growth]</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
 </sst>
 </file>
@@ -402,6 +402,8 @@
     <xf numFmtId="44" fontId="2" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,8 +419,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -426,46 +426,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -524,6 +484,46 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -738,7 +738,7 @@
     <tableColumn id="1" xr3:uid="{5FDF1320-5B10-468E-A1FB-4CC34F988AF8}" name="Year"/>
     <tableColumn id="2" xr3:uid="{2B1F9B0E-2EB4-4DD7-B95A-42CBBE4E9A26}" name="Coupon" dataCellStyle="Currency"/>
     <tableColumn id="3" xr3:uid="{F8D5CBD2-C854-43E6-98C3-6FCD800ECAB2}" name="PriceMedian" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{B71715D7-F5E8-42E7-93CA-1A9118BEE218}" name="YOC" dataDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{B71715D7-F5E8-42E7-93CA-1A9118BEE218}" name="YOC" dataDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[PriceMedian]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -814,15 +814,15 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{62EBC43D-E479-41D4-A87F-392537BB888A}" name="Fiscal Year"/>
     <tableColumn id="2" xr3:uid="{B44E26B7-745B-4E98-BAD6-D6759FA4E6D3}" name="Revenue"/>
-    <tableColumn id="3" xr3:uid="{31DA2C1C-1A18-4F1F-8232-E22513D7E82A}" name="RevGro" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{31DA2C1C-1A18-4F1F-8232-E22513D7E82A}" name="RevGro" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{79A83570-1D08-4443-87B5-EFEA379F44BA}" name="Dividend"/>
-    <tableColumn id="5" xr3:uid="{B08B3DDE-5371-43E8-88E6-73F4DB97A997}" name="DivGro" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{B08B3DDE-5371-43E8-88E6-73F4DB97A997}" name="DivGro" dataDxfId="11"/>
     <tableColumn id="6" xr3:uid="{D664DDA8-9C6C-4B70-A797-ED5F663E1A6C}" name="DivPerShare"/>
-    <tableColumn id="7" xr3:uid="{94011229-06CB-408C-946F-E5B01E7FF392}" name="DPSGro" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{94011229-06CB-408C-946F-E5B01E7FF392}" name="DPSGro" dataDxfId="10" dataCellStyle="Percent"/>
     <tableColumn id="8" xr3:uid="{2D92246E-BF59-46D6-A0EC-301AE06C6133}" name="MarketValue" dataCellStyle="Currency"/>
-    <tableColumn id="9" xr3:uid="{E0E68D77-A6DE-4D09-841B-3422686E1A84}" name="MVGro" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{E0E68D77-A6DE-4D09-841B-3422686E1A84}" name="MVGro" dataDxfId="9" dataCellStyle="Percent"/>
     <tableColumn id="10" xr3:uid="{B0D51114-3CC5-4A00-9EB3-FC1FE1BD06C4}" name="SharesOutstanding"/>
-    <tableColumn id="11" xr3:uid="{58A6D5ED-FBAA-4549-8852-30F681A965E9}" name="ShareGro" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{58A6D5ED-FBAA-4549-8852-30F681A965E9}" name="ShareGro" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,11 +862,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6B075F70-03FD-4F18-974B-6A1E42927185}" name="Table17" displayName="Table17" ref="C6:D36" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6B075F70-03FD-4F18-974B-6A1E42927185}" name="Table17" displayName="Table17" ref="C6:D36" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6">
   <autoFilter ref="C6:D36" xr:uid="{6B075F70-03FD-4F18-974B-6A1E42927185}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{17720CF0-4C15-4B55-BC81-0E3781C7BF22}" name="Year"/>
-    <tableColumn id="2" xr3:uid="{01BA4252-FBF2-4A6D-B5F6-D6E00AA2DE50}" name="FV" dataDxfId="10">
+    <tableColumn id="2" xr3:uid="{01BA4252-FBF2-4A6D-B5F6-D6E00AA2DE50}" name="FV" dataDxfId="5">
       <calculatedColumnFormula>$D$4*(1+$D$5)^C7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -875,11 +875,11 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{503BFDBB-B7BD-4D9C-A28E-B70077814031}" name="Table1815" displayName="Table1815" ref="G6:H36" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{503BFDBB-B7BD-4D9C-A28E-B70077814031}" name="Table1815" displayName="Table1815" ref="G6:H36" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="G6:H36" xr:uid="{503BFDBB-B7BD-4D9C-A28E-B70077814031}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{56FDB9CA-94AE-4A82-9B0D-0C0A9E6D92D9}" name="Year"/>
-    <tableColumn id="2" xr3:uid="{B2FB668A-126F-47CB-BD30-804E63E9DC1D}" name="FV" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{B2FB668A-126F-47CB-BD30-804E63E9DC1D}" name="FV" dataDxfId="3">
       <calculatedColumnFormula>$H$4/(1+$H$5)^G7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -888,11 +888,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3ED64007-492B-456F-8063-EF02A084B9CB}" name="Table1811" displayName="Table1811" ref="K6:L36" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3ED64007-492B-456F-8063-EF02A084B9CB}" name="Table1811" displayName="Table1811" ref="K6:L36" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="K6:L36" xr:uid="{3ED64007-492B-456F-8063-EF02A084B9CB}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4B2C27D7-EBA6-4D7A-AFDB-FED4AF0B645A}" name="Year"/>
-    <tableColumn id="2" xr3:uid="{92AF3836-C75C-4E36-8604-B5FA0784AC0B}" name="Rate" dataDxfId="6" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{92AF3836-C75C-4E36-8604-B5FA0784AC0B}" name="Rate" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>($L$4/$L$5)^(1/K7)-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3235,734 +3235,734 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="29" t="s">
         <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="29" t="s">
         <v>27</v>
       </c>
       <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="29" t="s">
         <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="35" t="e">
+      <c r="D3" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C2)/C2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F3" s="35" t="e">
+      <c r="F3" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E2)/E2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H3" s="35" t="e">
+      <c r="H3" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G2)/G2</f>
         <v>#VALUE!</v>
       </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="35" t="e">
+      <c r="J3" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I2)/I2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L3" s="35" t="e">
+      <c r="L3" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K2)/K2</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D4" s="35" t="e">
+      <c r="D4" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C3)/C3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F4" s="35" t="e">
+      <c r="F4" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E3)/E3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="35" t="e">
+      <c r="H4" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G3)/G3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="J4" s="35" t="e">
+      <c r="J4" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I3)/I3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="35" t="e">
+      <c r="L4" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K3)/K3</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D5" s="35" t="e">
+      <c r="D5" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C4)/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F5" s="35" t="e">
+      <c r="F5" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E4)/E4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="35" t="e">
+      <c r="H5" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G4)/G4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="35" t="e">
+      <c r="J5" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I4)/I4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="35" t="e">
+      <c r="L5" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K4)/K4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="35" t="e">
+      <c r="D6" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C5)/C5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="35" t="e">
+      <c r="F6" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E5)/E5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="35" t="e">
+      <c r="H6" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G5)/G5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="35" t="e">
+      <c r="J6" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I5)/I5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="35" t="e">
+      <c r="L6" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K5)/K5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="35" t="e">
+      <c r="D7" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C6)/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="35" t="e">
+      <c r="F7" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E6)/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="35" t="e">
+      <c r="H7" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G6)/G6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="35" t="e">
+      <c r="J7" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I6)/I6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="35" t="e">
+      <c r="L7" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K6)/K6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="35" t="e">
+      <c r="D8" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C7)/C7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F8" s="35" t="e">
+      <c r="F8" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E7)/E7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="35" t="e">
+      <c r="H8" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G7)/G7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="35" t="e">
+      <c r="J8" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I7)/I7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="35" t="e">
+      <c r="L8" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K7)/K7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="35" t="e">
+      <c r="D9" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C8)/C8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F9" s="35" t="e">
+      <c r="F9" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E8)/E8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="35" t="e">
+      <c r="H9" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G8)/G8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="35" t="e">
+      <c r="J9" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I8)/I8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="35" t="e">
+      <c r="L9" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K8)/K8</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="35" t="e">
+      <c r="D10" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C9)/C9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="35" t="e">
+      <c r="F10" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E9)/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="35" t="e">
+      <c r="H10" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G9)/G9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="35" t="e">
+      <c r="J10" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I9)/I9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="35" t="e">
+      <c r="L10" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K9)/K9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="35" t="e">
+      <c r="D11" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C10)/C10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="35" t="e">
+      <c r="F11" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E10)/E10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="35" t="e">
+      <c r="H11" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G10)/G10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="35" t="e">
+      <c r="J11" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I10)/I10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="35" t="e">
+      <c r="L11" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K10)/K10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="35" t="e">
+      <c r="D12" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C11)/C11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="35" t="e">
+      <c r="F12" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E11)/E11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="35" t="e">
+      <c r="H12" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G11)/G11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="35" t="e">
+      <c r="J12" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I11)/I11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="35" t="e">
+      <c r="L12" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K11)/K11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="35" t="e">
+      <c r="D13" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C12)/C12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="35" t="e">
+      <c r="F13" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E12)/E12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="35" t="e">
+      <c r="H13" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G12)/G12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="35" t="e">
+      <c r="J13" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I12)/I12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="35" t="e">
+      <c r="L13" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K12)/K12</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="35" t="e">
+      <c r="D14" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C13)/C13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="35" t="e">
+      <c r="F14" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E13)/E13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="35" t="e">
+      <c r="H14" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G13)/G13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="35" t="e">
+      <c r="J14" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I13)/I13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="35" t="e">
+      <c r="L14" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K13)/K13</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="35" t="e">
+      <c r="D15" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C14)/C14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="35" t="e">
+      <c r="F15" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E14)/E14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="35" t="e">
+      <c r="H15" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G14)/G14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="35" t="e">
+      <c r="J15" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I14)/I14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="35" t="e">
+      <c r="L15" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K14)/K14</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="35" t="e">
+      <c r="D16" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C15)/C15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="35" t="e">
+      <c r="F16" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E15)/E15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="35" t="e">
+      <c r="H16" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G15)/G15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="35" t="e">
+      <c r="J16" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I15)/I15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="35" t="e">
+      <c r="L16" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K15)/K15</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="35" t="e">
+      <c r="D17" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C16)/C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="35" t="e">
+      <c r="F17" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E16)/E16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="35" t="e">
+      <c r="H17" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G16)/G16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="35" t="e">
+      <c r="J17" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I16)/I16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="35" t="e">
+      <c r="L17" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K16)/K16</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="35" t="e">
+      <c r="D18" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C17)/C17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="35" t="e">
+      <c r="F18" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E17)/E17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="35" t="e">
+      <c r="H18" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G17)/G17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="35" t="e">
+      <c r="J18" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I17)/I17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="35" t="e">
+      <c r="L18" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K17)/K17</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="35" t="e">
+      <c r="D19" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C18)/C18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="35" t="e">
+      <c r="F19" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E18)/E18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="35" t="e">
+      <c r="H19" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G18)/G18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="35" t="e">
+      <c r="J19" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I18)/I18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="35" t="e">
+      <c r="L19" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K18)/K18</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="35" t="e">
+      <c r="D20" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C19)/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="35" t="e">
+      <c r="F20" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E19)/E19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="35" t="e">
+      <c r="H20" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G19)/G19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="35" t="e">
+      <c r="J20" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I19)/I19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="35" t="e">
+      <c r="L20" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K19)/K19</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="35" t="e">
+      <c r="D21" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C20)/C20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="35" t="e">
+      <c r="F21" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E20)/E20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="35" t="e">
+      <c r="H21" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G20)/G20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="35" t="e">
+      <c r="J21" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I20)/I20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="35" t="e">
+      <c r="L21" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K20)/K20</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="35" t="e">
+      <c r="D22" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C21)/C21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="35" t="e">
+      <c r="F22" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E21)/E21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="35" t="e">
+      <c r="H22" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G21)/G21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="35" t="e">
+      <c r="J22" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I21)/I21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="35" t="e">
+      <c r="L22" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K21)/K21</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="35" t="e">
+      <c r="D23" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C22)/C22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="35" t="e">
+      <c r="F23" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E22)/E22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="35" t="e">
+      <c r="H23" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G22)/G22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="35" t="e">
+      <c r="J23" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I22)/I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="35" t="e">
+      <c r="L23" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K22)/K22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="35" t="e">
+      <c r="D24" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C23)/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="35" t="e">
+      <c r="F24" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E23)/E23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="35" t="e">
+      <c r="H24" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G23)/G23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="35" t="e">
+      <c r="J24" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I23)/I23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="35" t="e">
+      <c r="L24" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K23)/K23</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="35" t="e">
+      <c r="D25" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C24)/C24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="35" t="e">
+      <c r="F25" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E24)/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="35" t="e">
+      <c r="H25" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G24)/G24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I25" s="5"/>
-      <c r="J25" s="35" t="e">
+      <c r="J25" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I24)/I24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="35" t="e">
+      <c r="L25" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K24)/K24</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="35" t="e">
+      <c r="D26" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C25)/C25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="35" t="e">
+      <c r="F26" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E25)/E25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="35" t="e">
+      <c r="H26" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G25)/G25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="35" t="e">
+      <c r="J26" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I25)/I25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="35" t="e">
+      <c r="L26" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K25)/K25</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="35" t="e">
+      <c r="D27" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C26)/C26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="35" t="e">
+      <c r="F27" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E26)/E26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="35" t="e">
+      <c r="H27" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G26)/G26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="5"/>
-      <c r="J27" s="35" t="e">
+      <c r="J27" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I26)/I26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="35" t="e">
+      <c r="L27" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K26)/K26</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="35" t="e">
+      <c r="D28" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C27)/C27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="35" t="e">
+      <c r="F28" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E27)/E27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="35" t="e">
+      <c r="H28" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G27)/G27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="35" t="e">
+      <c r="J28" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I27)/I27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="35" t="e">
+      <c r="L28" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K27)/K27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="35" t="e">
+      <c r="D29" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C28)/C28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="35" t="e">
+      <c r="F29" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E28)/E28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="35" t="e">
+      <c r="H29" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G28)/G28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="5"/>
-      <c r="J29" s="35" t="e">
+      <c r="J29" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I28)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="35" t="e">
+      <c r="L29" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K28)/K28</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="35" t="e">
+      <c r="D30" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C29)/C29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="35" t="e">
+      <c r="F30" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E29)/E29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="35" t="e">
+      <c r="H30" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G29)/G29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="35" t="e">
+      <c r="J30" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I29)/I29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="35" t="e">
+      <c r="L30" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K29)/K29</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D31" s="35" t="e">
+      <c r="D31" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C30)/C30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="35" t="e">
+      <c r="F31" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E30)/E30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="35" t="e">
+      <c r="H31" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G30)/G30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="35" t="e">
+      <c r="J31" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I30)/I30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="35" t="e">
+      <c r="L31" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K30)/K30</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D32" s="35" t="e">
+      <c r="D32" s="30" t="e">
         <f>(Table3[[#This Row],[Revenue]]-C31)/C31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="35" t="e">
+      <c r="F32" s="30" t="e">
         <f>(Table3[[#This Row],[Dividend]]-E31)/E31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="35" t="e">
+      <c r="H32" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G31)/G31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="35" t="e">
+      <c r="J32" s="30" t="e">
         <f>(Table3[[#This Row],[MarketValue]]-I31)/I31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L32" s="35" t="e">
+      <c r="L32" s="30" t="e">
         <f>(Table3[[#This Row],[SharesOutstanding]]-K31)/K31</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="H33" s="35" t="e">
+      <c r="D33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="H33" s="30" t="e">
         <f>(Table3[[#This Row],[DivPerShare]]-G32)/G32</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I33" s="5"/>
-      <c r="J33" s="35"/>
-      <c r="L33" s="34"/>
+      <c r="J33" s="30"/>
+      <c r="L33" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3977,7 +3977,7 @@
   <dimension ref="B2:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F32"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4513,26 +4513,26 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="D2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="K2" s="31" t="s">
+      <c r="H2" s="32"/>
+      <c r="K2" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="32"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="18" t="s">
@@ -5304,7 +5304,7 @@
   <dimension ref="B2:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:T2"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5324,22 +5324,22 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -5530,7 +5530,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J8" s="2" t="e">
         <f>J4/$J5</f>
@@ -5626,18 +5626,18 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[PriceMedian]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12">

--- a/Stock-Analysis/TEMP.xlsx
+++ b/Stock-Analysis/TEMP.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{BF6FA561-EC26-467C-8F85-3928E6C471CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B69AEE54-246D-4717-B4E7-36069285BEBD}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{BF6FA561-EC26-467C-8F85-3928E6C471CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76FA7937-02B1-4033-87A0-B3D27147FF1F}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="4" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="720" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="IOV" sheetId="4" r:id="rId1"/>
+    <sheet name="Aesop" sheetId="4" r:id="rId1"/>
     <sheet name="Margins" sheetId="2" r:id="rId2"/>
     <sheet name="Growth" sheetId="9" r:id="rId3"/>
     <sheet name="Owner" sheetId="6" r:id="rId4"/>
@@ -1199,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8823418-CB30-4C4D-A185-44436F679E29}">
   <dimension ref="B3:X33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4506,7 +4506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3278A72C-A4B7-4E17-830D-45626724E8C6}">
   <dimension ref="C2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
